--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2952339.764976539</v>
+        <v>2941016.771281189</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11591814.75140868</v>
+        <v>11587896.62590677</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118820.530493751</v>
+        <v>2120971.347036313</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7911329.923900996</v>
+        <v>7913665.212019822</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>152.6005339118998</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>135.2269483119432</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1435,7 +1435,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572878</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1618,7 +1618,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>196.9765209513802</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481097</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1773,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.9570160514552</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1849,19 +1849,19 @@
         <v>318.2977551524149</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>209.3529512725061</v>
       </c>
       <c r="E17" t="n">
-        <v>292.6298770457049</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>97.77987829572818</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145565</v>
+        <v>41.9570160514552</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2058,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2089,16 +2089,16 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
-        <v>298.8129048936676</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.6510731180178</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>302.2658320988204</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2259,7 +2259,7 @@
         <v>97.77987829572818</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.9570160514552</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2295,7 +2295,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V22" t="n">
         <v>205.1625067052354</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G23" t="n">
-        <v>261.545955393534</v>
+        <v>14.97528736302576</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W23" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X23" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y23" t="n">
         <v>339.262802037461</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572768</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124557</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128487</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980816</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687855</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>154.2342841319856</v>
       </c>
       <c r="W26" t="n">
-        <v>85.35937547041483</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>29.25600601213878</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145655</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>341.1569118905546</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>323.6959619980816</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>340.3534402993358</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>262.2409573245644</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>253.0308346143945</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.61083201524988</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T29" t="n">
-        <v>162.3410403666942</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U29" t="n">
-        <v>209.418242185976</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>286.175328697209</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>307.6640389444871</v>
+        <v>180.8166884192805</v>
       </c>
       <c r="X29" t="n">
-        <v>328.1541709055431</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.6610088831276</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.2550504090113</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>125.6698913257019</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
-        <v>107.0385432452864</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8570328736432</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8441182500053</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G31" t="n">
-        <v>124.4488784861023</v>
+        <v>119.0506716404371</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413948</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691215</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.35522289712138</v>
+        <v>41.95701605145472</v>
       </c>
       <c r="S31" t="n">
-        <v>148.1920955585159</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>49.27444973707511</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>244.6349084326869</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V31" t="n">
-        <v>210.5607135509021</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>244.9460685636651</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>184.1327256161112</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0077235791688</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3031,22 +3031,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>129.6655361708508</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>14.97528736302491</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3195,19 +3195,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145609</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3252,7 +3252,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3268,22 +3268,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>62.21262516958325</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V35" t="n">
-        <v>208.0640168708601</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>147.6721943364663</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3432,19 +3432,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T37" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3489,7 +3489,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>272.7952415512671</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E38" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687278</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958316</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210275</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403093</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515422</v>
+        <v>179.4384479484341</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="39">
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572811</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124542</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145466</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.3356348178139</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>359.8746849253408</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>349.2848347750162</v>
+        <v>64.37012338319094</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265951</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>405.5235188077867</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>289.2095575416537</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425091</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>322.3540516244682</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>261.7590356536473</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.8397318103869</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.4337733362706</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C43" t="n">
-        <v>161.8486142529611</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009025</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6276014133615</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3568080686541</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8136313599462</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>111.7619968024312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909243</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>220.3114485433704</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064281</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>377.3356348178139</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>359.8746849253408</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>349.2848347750162</v>
+        <v>325.5519904991512</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>401.4778388960447</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>289.2095575416537</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.9507780299448</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>322.3540516244682</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>343.8427618717463</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>364.3328938328023</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>380.8397318103869</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>174.4337733362706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>141.0357558009025</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.0228411772645</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.6276014133615</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>139.3568080686541</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>83.53394582438061</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.3708184857752</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>214.1507424305025</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>280.8136313599462</v>
+        <v>270.0697021486467</v>
       </c>
       <c r="V46" t="n">
-        <v>152.9685031717644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.1864465064281</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1386.143792573978</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C11" t="n">
-        <v>1386.143792573978</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D11" t="n">
         <v>1386.143792573978</v>
@@ -5035,10 +5035,10 @@
         <v>316.6460838753429</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912088</v>
@@ -5053,40 +5053,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T11" t="n">
-        <v>3189.0129445264</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U11" t="n">
-        <v>2982.932100748309</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="V11" t="n">
-        <v>2699.318846352812</v>
+        <v>2820.623417021136</v>
       </c>
       <c r="W11" t="n">
-        <v>2393.999824030771</v>
+        <v>2515.304394699096</v>
       </c>
       <c r="X11" t="n">
-        <v>2067.983698717765</v>
+        <v>2515.304394699096</v>
       </c>
       <c r="Y11" t="n">
-        <v>1725.293999690027</v>
+        <v>2172.614695671357</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.408918177042</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998342</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
         <v>158.1401341315256</v>
@@ -5205,7 +5205,7 @@
         <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5244,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1654.93647038346</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.423586391121</v>
+        <v>1696.959858232656</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822731</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
         <v>684.2689010822731</v>
@@ -5278,10 +5278,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
@@ -5290,7 +5290,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5308,22 +5308,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3167.077706941466</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2968.111524162294</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2968.111524162294</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W14" t="n">
-        <v>2662.792501840253</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X14" t="n">
-        <v>2336.776376527247</v>
+        <v>2700.312648368781</v>
       </c>
       <c r="Y14" t="n">
-        <v>1994.086677499508</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998337</v>
@@ -5439,10 +5439,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1301.367519464212</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C17" t="n">
-        <v>979.854635471874</v>
+        <v>979.8546354718744</v>
       </c>
       <c r="D17" t="n">
-        <v>979.854635471874</v>
+        <v>768.3870079238884</v>
       </c>
       <c r="E17" t="n">
-        <v>684.268901082273</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F17" t="n">
-        <v>684.268901082273</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5515,25 +5515,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5545,7 +5545,7 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T17" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U17" t="n">
         <v>2898.155827638544</v>
@@ -5557,7 +5557,7 @@
         <v>2309.223550921006</v>
       </c>
       <c r="X17" t="n">
-        <v>1983.207425607999</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y17" t="n">
         <v>1640.517726580261</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254612</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611989</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770421</v>
       </c>
       <c r="G19" t="n">
         <v>215.1557144998336</v>
@@ -5673,7 +5673,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
         <v>408.6327023328087</v>
@@ -5697,28 +5697,28 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874612</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1364.208554989044</v>
+        <v>2012.430767830337</v>
       </c>
       <c r="C20" t="n">
-        <v>1042.695670996706</v>
+        <v>1690.917883837999</v>
       </c>
       <c r="D20" t="n">
-        <v>731.8796053380283</v>
+        <v>1380.101818179322</v>
       </c>
       <c r="E20" t="n">
-        <v>430.0483882737176</v>
+        <v>1041.763198529151</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218342</v>
+        <v>678.2269266876165</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>310.6041094806863</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5752,10 +5752,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941466</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2960.996863163376</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V20" t="n">
-        <v>2677.383608767878</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W20" t="n">
-        <v>2372.064586445837</v>
+        <v>3020.28679928713</v>
       </c>
       <c r="X20" t="n">
-        <v>2046.048461132831</v>
+        <v>2694.270673974124</v>
       </c>
       <c r="Y20" t="n">
-        <v>1703.358762105092</v>
+        <v>2351.580974946386</v>
       </c>
     </row>
     <row r="21">
@@ -5822,37 +5822,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052941</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G22" t="n">
         <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1301.367519464212</v>
+        <v>1665.976477910009</v>
       </c>
       <c r="C23" t="n">
-        <v>979.854635471874</v>
+        <v>1344.46359391767</v>
       </c>
       <c r="D23" t="n">
-        <v>669.0385698131968</v>
+        <v>1033.647528258993</v>
       </c>
       <c r="E23" t="n">
-        <v>330.6999501630258</v>
+        <v>695.3089086088223</v>
       </c>
       <c r="F23" t="n">
-        <v>330.6999501630258</v>
+        <v>331.7726367672881</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T23" t="n">
-        <v>3104.236671416634</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="U23" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="V23" t="n">
-        <v>2614.542573243047</v>
+        <v>2979.151531688843</v>
       </c>
       <c r="W23" t="n">
-        <v>2309.223550921006</v>
+        <v>2673.832509366802</v>
       </c>
       <c r="X23" t="n">
-        <v>1983.207425607999</v>
+        <v>2347.816384053795</v>
       </c>
       <c r="Y23" t="n">
-        <v>1640.517726580261</v>
+        <v>2005.126685026057</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6129,43 +6129,43 @@
         <v>637.9796998254604</v>
       </c>
       <c r="D25" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E25" t="n">
-        <v>434.8492327268781</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F25" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G25" t="n">
-        <v>215.1557144998332</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H25" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K25" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L25" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M25" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N25" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O25" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P25" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q25" t="n">
         <v>2299.337630107745</v>
@@ -6174,25 +6174,25 @@
         <v>2256.956805813346</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T25" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U25" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V25" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W25" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X25" t="n">
         <v>1067.008027882917</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874604</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2051.189147350246</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C26" t="n">
-        <v>1724.223529170366</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D26" t="n">
-        <v>1407.954729324146</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E26" t="n">
-        <v>1064.163375486434</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F26" t="n">
-        <v>695.1743694573572</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G26" t="n">
-        <v>322.0988180628849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T26" t="n">
-        <v>3161.624972753923</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U26" t="n">
-        <v>3161.624972753923</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V26" t="n">
-        <v>3161.624972753923</v>
+        <v>2742.36362144462</v>
       </c>
       <c r="W26" t="n">
-        <v>3075.403381369666</v>
+        <v>2437.044599122579</v>
       </c>
       <c r="X26" t="n">
-        <v>2743.934521869117</v>
+        <v>2111.028473809572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2395.792088653837</v>
+        <v>1768.338774781834</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I27" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>667.6378438997368</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C28" t="n">
-        <v>540.6985597323612</v>
+        <v>637.9796998254604</v>
       </c>
       <c r="D28" t="n">
-        <v>432.5788190805567</v>
+        <v>535.3126933611981</v>
       </c>
       <c r="E28" t="n">
-        <v>326.6626242586949</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F28" t="n">
-        <v>221.7695755213158</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G28" t="n">
-        <v>96.06363765656602</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H28" t="n">
-        <v>96.06363765656602</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K28" t="n">
-        <v>397.9442527783887</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L28" t="n">
-        <v>755.6652117020815</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M28" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N28" t="n">
-        <v>1523.552954957888</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.043714353498</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P28" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q28" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R28" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S28" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T28" t="n">
-        <v>1879.29157132554</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U28" t="n">
-        <v>1632.185603211715</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V28" t="n">
-        <v>1419.498013766359</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W28" t="n">
-        <v>1172.07774248993</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X28" t="n">
-        <v>986.0850903524441</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y28" t="n">
-        <v>807.2894099694453</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1257.745645963877</v>
+        <v>1707.656676566316</v>
       </c>
       <c r="C29" t="n">
-        <v>930.7800277839963</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D29" t="n">
-        <v>930.7800277839963</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E29" t="n">
-        <v>586.9886739462834</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F29" t="n">
-        <v>322.098818062885</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G29" t="n">
-        <v>322.098818062885</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3257.312051896798</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T29" t="n">
-        <v>3093.331203041551</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U29" t="n">
-        <v>2881.797625075919</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V29" t="n">
-        <v>2592.731636492879</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="W29" t="n">
-        <v>2281.959879983297</v>
+        <v>2715.51270802311</v>
       </c>
       <c r="X29" t="n">
-        <v>1950.491020482748</v>
+        <v>2389.496582710103</v>
       </c>
       <c r="Y29" t="n">
-        <v>1602.348587267467</v>
+        <v>2046.806883682365</v>
       </c>
     </row>
     <row r="30">
@@ -6533,16 +6533,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>797.6353891180886</v>
+        <v>759.4662498052955</v>
       </c>
       <c r="C31" t="n">
-        <v>670.696104950713</v>
+        <v>637.9796998254619</v>
       </c>
       <c r="D31" t="n">
-        <v>562.5763642989085</v>
+        <v>535.3126933611995</v>
       </c>
       <c r="E31" t="n">
-        <v>456.6601694770467</v>
+        <v>434.8492327268798</v>
       </c>
       <c r="F31" t="n">
-        <v>351.7671207396676</v>
+        <v>335.4089181770428</v>
       </c>
       <c r="G31" t="n">
-        <v>226.0611828749178</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H31" t="n">
-        <v>121.8408948533068</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>152.7959093543157</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K31" t="n">
-        <v>397.9442527783888</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L31" t="n">
-        <v>755.6652117020816</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M31" t="n">
-        <v>1140.983417776827</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.552954957889</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O31" t="n">
-        <v>1864.043714353499</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P31" t="n">
-        <v>2137.812375262355</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q31" t="n">
-        <v>2256.583831890066</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R31" t="n">
-        <v>2208.750273408125</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S31" t="n">
-        <v>2059.061287995483</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T31" t="n">
-        <v>2009.289116543892</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U31" t="n">
-        <v>1762.183148430067</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V31" t="n">
-        <v>1549.495558984711</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W31" t="n">
-        <v>1302.075287708282</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X31" t="n">
-        <v>1116.082635570796</v>
+        <v>1067.008027882919</v>
       </c>
       <c r="Y31" t="n">
-        <v>937.286955187797</v>
+        <v>893.6650816874619</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1654.936470383459</v>
+        <v>1650.849925018064</v>
       </c>
       <c r="C32" t="n">
-        <v>1333.423586391121</v>
+        <v>1329.337041025725</v>
       </c>
       <c r="D32" t="n">
-        <v>1022.607520732444</v>
+        <v>1018.520975367048</v>
       </c>
       <c r="E32" t="n">
-        <v>684.268901082273</v>
+        <v>680.1823557168772</v>
       </c>
       <c r="F32" t="n">
-        <v>684.268901082273</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="G32" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M32" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T32" t="n">
-        <v>3131.789497022874</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U32" t="n">
-        <v>2925.708653244784</v>
+        <v>3247.638233192395</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.095398849287</v>
+        <v>2964.024978796898</v>
       </c>
       <c r="W32" t="n">
-        <v>2336.776376527246</v>
+        <v>2658.705956474857</v>
       </c>
       <c r="X32" t="n">
-        <v>2336.776376527246</v>
+        <v>2332.689831161851</v>
       </c>
       <c r="Y32" t="n">
-        <v>1994.086677499508</v>
+        <v>1990.000132134112</v>
       </c>
     </row>
     <row r="33">
@@ -6770,16 +6770,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C34" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D34" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E34" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F34" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G34" t="n">
         <v>215.1557144998336</v>
@@ -6855,13 +6855,13 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
         <v>158.1401341315257</v>
       </c>
       <c r="K34" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L34" t="n">
         <v>771.6978860337115</v>
@@ -6876,34 +6876,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P34" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q34" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R34" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U34" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V34" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W34" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X34" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y34" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1680.134122574823</v>
+        <v>1457.522709123157</v>
       </c>
       <c r="C35" t="n">
-        <v>1358.621238582484</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="D35" t="n">
-        <v>1047.805172923807</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E35" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F35" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G35" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6940,13 +6940,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
@@ -6967,22 +6967,22 @@
         <v>3262.76478608434</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U35" t="n">
         <v>2898.155827638545</v>
       </c>
       <c r="V35" t="n">
-        <v>2687.990154031616</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W35" t="n">
-        <v>2687.990154031616</v>
+        <v>2465.37874057995</v>
       </c>
       <c r="X35" t="n">
-        <v>2361.97402871861</v>
+        <v>2139.362615266944</v>
       </c>
       <c r="Y35" t="n">
-        <v>2019.284329690871</v>
+        <v>1796.672916239206</v>
       </c>
     </row>
     <row r="36">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052948</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254611</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611987</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E37" t="n">
-        <v>434.849232726879</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F37" t="n">
-        <v>335.408918177042</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K37" t="n">
         <v>408.6327023328087</v>
@@ -7113,34 +7113,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P37" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q37" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R37" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T37" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U37" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V37" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W37" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X37" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1983.207425608</v>
+        <v>1768.338774781834</v>
       </c>
       <c r="C38" t="n">
-        <v>1661.694541615662</v>
+        <v>1446.825890789496</v>
       </c>
       <c r="D38" t="n">
-        <v>1386.143792573978</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="F38" t="n">
-        <v>684.2689010822729</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G38" t="n">
-        <v>316.6460838753428</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7204,22 +7204,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416635</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="U38" t="n">
-        <v>2898.155827638544</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="V38" t="n">
-        <v>2614.542573243047</v>
+        <v>3081.513828560668</v>
       </c>
       <c r="W38" t="n">
-        <v>2309.223550921006</v>
+        <v>2776.194806238627</v>
       </c>
       <c r="X38" t="n">
-        <v>1983.207425608</v>
+        <v>2450.178680925621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1983.207425608</v>
+        <v>2107.488981897883</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052935</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C40" t="n">
-        <v>637.97969982546</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611977</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E40" t="n">
-        <v>434.849232726878</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770411</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998335</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H40" t="n">
         <v>116.3881606657647</v>
@@ -7335,49 +7335,49 @@
         <v>158.1401341315257</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M40" t="n">
-        <v>1162.360316885668</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N40" t="n">
-        <v>1550.274078843939</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O40" t="n">
-        <v>1896.109063016759</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P40" t="n">
-        <v>2175.221948702822</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q40" t="n">
-        <v>2299.337630107744</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R40" t="n">
-        <v>2256.956805813345</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588245</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T40" t="n">
-        <v>1938.403572105844</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179561</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V40" t="n">
-        <v>1489.515482921748</v>
+        <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.54794583286</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X40" t="n">
         <v>1067.008027882917</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874599</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1864.920964186115</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C41" t="n">
-        <v>1501.411181433246</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D41" t="n">
-        <v>1148.598217014038</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>768.2626986033355</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>768.2626986033355</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>358.6429826358741</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
@@ -7429,34 +7429,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3220.767887323809</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3220.767887323809</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.767887323809</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V41" t="n">
-        <v>2895.15773416778</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W41" t="n">
-        <v>2895.15773416778</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X41" t="n">
-        <v>2630.754667850965</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y41" t="n">
-        <v>2246.068070062695</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="42">
@@ -7481,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.4704795997382</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C43" t="n">
-        <v>511.9870308593734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D43" t="n">
-        <v>511.9870308593734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E43" t="n">
-        <v>369.5266714645224</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>369.5266714645224</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>207.2765690267835</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>116.978973656329</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824155</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
-        <v>648.2144046081216</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848807</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467956</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165579</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376448</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306173</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1970.048346306173</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1970.048346306173</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1970.048346306173</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1686.398213619359</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.507307758317</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W43" t="n">
-        <v>1289.542871908899</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.006055198424</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y43" t="n">
-        <v>851.6662102424357</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1480.498900410017</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C44" t="n">
-        <v>1116.989117657148</v>
+        <v>806.3384156653781</v>
       </c>
       <c r="D44" t="n">
-        <v>764.1761532379395</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E44" t="n">
-        <v>764.1761532379395</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F44" t="n">
-        <v>358.6429826358741</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G44" t="n">
-        <v>358.6429826358741</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3287.271702387005</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3287.271702387005</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3287.271702387005</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V44" t="n">
-        <v>2961.661549230976</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W44" t="n">
-        <v>2614.345628148404</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X44" t="n">
-        <v>2246.332604074867</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y44" t="n">
-        <v>1861.646006286597</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.4242441697415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C46" t="n">
-        <v>653.4242441697415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D46" t="n">
-        <v>653.4242441697415</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E46" t="n">
-        <v>510.9638847748905</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F46" t="n">
-        <v>369.5266714645223</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G46" t="n">
-        <v>207.2765690267835</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
@@ -7806,52 +7806,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>116.978973656329</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>326.3103813824155</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>648.2144046081216</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>997.7156749848807</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>1344.468276467956</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1649.142100165579</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>1887.093825376448</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1970.048346306173</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1885.670623251243</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1699.437473265612</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1483.12359202268</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1199.473459335866</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.959819768427</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W46" t="n">
-        <v>1044.959819768427</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.959819768427</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.6199748124391</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>151.2169844775641</v>
+        <v>152.2108253758115</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3840322411864</v>
+        <v>176.8735421209836</v>
       </c>
       <c r="L5" t="n">
-        <v>180.3048935849672</v>
+        <v>182.1527623023289</v>
       </c>
       <c r="M5" t="n">
-        <v>168.6346043953262</v>
+        <v>170.6907143895751</v>
       </c>
       <c r="N5" t="n">
-        <v>166.7028760926219</v>
+        <v>168.7922560961746</v>
       </c>
       <c r="O5" t="n">
-        <v>170.8827596132473</v>
+        <v>172.8557019027606</v>
       </c>
       <c r="P5" t="n">
-        <v>180.693977634663</v>
+        <v>182.3778382331295</v>
       </c>
       <c r="Q5" t="n">
-        <v>184.3529920149271</v>
+        <v>185.6175011982801</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>109.0717262339693</v>
+        <v>109.6636510644737</v>
       </c>
       <c r="K6" t="n">
-        <v>107.4766854238916</v>
+        <v>108.4883792396235</v>
       </c>
       <c r="L6" t="n">
-        <v>97.72522138793872</v>
+        <v>99.08556857396164</v>
       </c>
       <c r="M6" t="n">
-        <v>94.48833186561772</v>
+        <v>96.07579286827492</v>
       </c>
       <c r="N6" t="n">
-        <v>82.43497006771102</v>
+        <v>84.06444643947091</v>
       </c>
       <c r="O6" t="n">
-        <v>97.85613020775475</v>
+        <v>99.34678274386596</v>
       </c>
       <c r="P6" t="n">
-        <v>98.06652138124093</v>
+        <v>99.26290145971919</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.9783032075468</v>
+        <v>116.778051606739</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8379,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>111.4466311186462</v>
+        <v>112.2275406460174</v>
       </c>
       <c r="M7" t="n">
-        <v>114.2136515800756</v>
+        <v>115.0370111850935</v>
       </c>
       <c r="N7" t="n">
-        <v>103.5610113710719</v>
+        <v>104.3647933249816</v>
       </c>
       <c r="O7" t="n">
-        <v>116.1736274705549</v>
+        <v>116.9160502008696</v>
       </c>
       <c r="P7" t="n">
-        <v>118.6611242128308</v>
+        <v>119.296395116105</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8461,7 +8461,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8625,10 +8625,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.95128703664055</v>
+        <v>14.96299667475891</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>183.1581711329882</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>21.71588520908441</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>7.043514388929196</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>5.981554650710734</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>98.3549537295842</v>
       </c>
       <c r="E17" t="n">
-        <v>42.32535640796425</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>36.14232856000154</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>5.981554650709995</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958322</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>102.400633641327</v>
+        <v>348.9713016718351</v>
       </c>
       <c r="H23" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524988</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>286.175328697209</v>
+        <v>126.5428377195567</v>
       </c>
       <c r="W26" t="n">
-        <v>222.3046634740722</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>25.51948462477336</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>313.106111847757</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>103.0581586442211</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>369.3447958805275</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24739,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>121.4491436795399</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>128.6975697661681</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>27.27729735017675</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>189.0447479772845</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>72.71310498068217</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>154.5936377623541</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>335.7587050448879</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>34.91266345082317</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,13 +25444,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>101.3386739031082</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>339.2628020374609</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>290.312918237492</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>401.4778388960447</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>36.17872292725923</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>198.5197632939534</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5969651132353</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717463</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>102.573858179155</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>143.2172661725456</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0228411772645</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>90.95421356417137</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438061</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.3708184857752</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305025</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>134.9774396757301</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>29.13105112153175</v>
       </c>
       <c r="E44" t="n">
-        <v>376.5321632265951</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.5235188077867</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>36.17872292725923</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>65.83877691256431</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>198.5197632939534</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>245.5969651132353</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>161.8486142529611</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>143.2172661725456</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>90.95421356417137</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>16.14213605696614</v>
       </c>
       <c r="V46" t="n">
-        <v>93.77093330639693</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>281.1247914909243</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>220.3114485433704</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>785563.6969990202</v>
+        <v>786385.7110803052</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>662660.1816716251</v>
+        <v>662660.181671625</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>662660.1816716251</v>
+        <v>662660.1816716252</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>662660.1816716251</v>
+        <v>662660.1816716252</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654921.3537959058</v>
+        <v>662660.1816716252</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654921.3537959061</v>
+        <v>662660.1816716252</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>662660.1816716252</v>
+        <v>662660.1816716251</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>662660.1816716252</v>
+        <v>662660.1816716251</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>600607.9620667211</v>
+        <v>592503.8915158239</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>600607.9620667211</v>
+        <v>592503.8915158239</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>737348.7048453343</v>
+        <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737373.8827576138</v>
+        <v>737373.0438791391</v>
       </c>
       <c r="D2" t="n">
-        <v>737423.8142063789</v>
+        <v>737423.814206379</v>
       </c>
       <c r="E2" t="n">
-        <v>688077.9089008588</v>
+        <v>688077.9089008587</v>
       </c>
       <c r="F2" t="n">
         <v>688077.9089008585</v>
       </c>
       <c r="G2" t="n">
+        <v>688077.9089008586</v>
+      </c>
+      <c r="H2" t="n">
+        <v>688077.9089008591</v>
+      </c>
+      <c r="I2" t="n">
+        <v>688077.908900859</v>
+      </c>
+      <c r="J2" t="n">
+        <v>688077.9089008588</v>
+      </c>
+      <c r="K2" t="n">
+        <v>688077.908900859</v>
+      </c>
+      <c r="L2" t="n">
+        <v>688077.9089008586</v>
+      </c>
+      <c r="M2" t="n">
         <v>688077.9089008587</v>
       </c>
-      <c r="H2" t="n">
-        <v>688077.9089008585</v>
-      </c>
-      <c r="I2" t="n">
-        <v>688077.9089008585</v>
-      </c>
-      <c r="J2" t="n">
-        <v>679883.8558559786</v>
-      </c>
-      <c r="K2" t="n">
-        <v>679883.8558559787</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>688077.9089008588</v>
       </c>
-      <c r="M2" t="n">
-        <v>688077.9089008586</v>
-      </c>
-      <c r="N2" t="n">
-        <v>688077.9089008591</v>
-      </c>
       <c r="O2" t="n">
-        <v>622375.5587309607</v>
+        <v>613794.7781476574</v>
       </c>
       <c r="P2" t="n">
-        <v>622375.5587309607</v>
+        <v>613794.7781476574</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79607.83776873854</v>
+        <v>76955.46132113918</v>
       </c>
       <c r="D3" t="n">
-        <v>148479.1380667177</v>
+        <v>150973.6771990657</v>
       </c>
       <c r="E3" t="n">
-        <v>951823.5594950287</v>
+        <v>951823.5594950286</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.143118879554095e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.54381834077</v>
+        <v>37580.10929487406</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4318.565476533366</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26420,46 +26420,46 @@
         <v>457775.3608255375</v>
       </c>
       <c r="C4" t="n">
-        <v>429372.6150224979</v>
+        <v>430316.1276694616</v>
       </c>
       <c r="D4" t="n">
         <v>373572.6966267998</v>
       </c>
       <c r="E4" t="n">
-        <v>60655.33327364775</v>
+        <v>60655.33327364776</v>
       </c>
       <c r="F4" t="n">
-        <v>60655.33327364775</v>
+        <v>60655.33327364776</v>
       </c>
       <c r="G4" t="n">
         <v>60655.33327364783</v>
       </c>
       <c r="H4" t="n">
-        <v>60655.33327364783</v>
+        <v>60655.33327364776</v>
       </c>
       <c r="I4" t="n">
-        <v>60655.33327364775</v>
+        <v>60655.3332736478</v>
       </c>
       <c r="J4" t="n">
-        <v>55445.45548108594</v>
+        <v>60655.33327364782</v>
       </c>
       <c r="K4" t="n">
-        <v>55445.45548108594</v>
+        <v>60655.33327364782</v>
       </c>
       <c r="L4" t="n">
-        <v>60655.33327364782</v>
+        <v>60655.33327364779</v>
       </c>
       <c r="M4" t="n">
-        <v>60655.3332736478</v>
+        <v>60655.33327364778</v>
       </c>
       <c r="N4" t="n">
-        <v>60655.33327364783</v>
+        <v>60655.33327364778</v>
       </c>
       <c r="O4" t="n">
-        <v>18885.20173600247</v>
+        <v>13430.06689216532</v>
       </c>
       <c r="P4" t="n">
-        <v>18885.20173600247</v>
+        <v>13430.06689216532</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35533.42808225602</v>
+        <v>35469.92964214973</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
@@ -26481,22 +26481,22 @@
         <v>78255.49332178175</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="I5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="J5" t="n">
-        <v>77801.6714704734</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="K5" t="n">
-        <v>77801.67147047342</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="L5" t="n">
         <v>78255.49332178176</v>
@@ -26508,10 +26508,10 @@
         <v>78255.49332178176</v>
       </c>
       <c r="O5" t="n">
-        <v>74760.16241270165</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74760.16241270165</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>245945.7440197968</v>
+        <v>245901.608241116</v>
       </c>
       <c r="C6" t="n">
-        <v>192860.0018841214</v>
+        <v>194588.0655519799</v>
       </c>
       <c r="D6" t="n">
-        <v>176059.0181559807</v>
+        <v>173522.4296160918</v>
       </c>
       <c r="E6" t="n">
-        <v>-402656.4771895994</v>
+        <v>-404069.2461889604</v>
       </c>
       <c r="F6" t="n">
-        <v>549167.082305429</v>
+        <v>547754.3133060681</v>
       </c>
       <c r="G6" t="n">
-        <v>549167.0823054293</v>
+        <v>547754.3133060682</v>
       </c>
       <c r="H6" t="n">
-        <v>549167.0823054289</v>
+        <v>547754.3133060683</v>
       </c>
       <c r="I6" t="n">
-        <v>549167.0823054289</v>
+        <v>547754.3133060685</v>
       </c>
       <c r="J6" t="n">
-        <v>513375.1850860785</v>
+        <v>510174.2040111942</v>
       </c>
       <c r="K6" t="n">
-        <v>546636.7289044193</v>
+        <v>547754.3133060684</v>
       </c>
       <c r="L6" t="n">
-        <v>544848.5168288959</v>
+        <v>547754.3133060681</v>
       </c>
       <c r="M6" t="n">
-        <v>341978.5140133561</v>
+        <v>340565.7450139952</v>
       </c>
       <c r="N6" t="n">
-        <v>549167.0823054295</v>
+        <v>547754.3133060683</v>
       </c>
       <c r="O6" t="n">
-        <v>528730.1945822566</v>
+        <v>522582.1813960377</v>
       </c>
       <c r="P6" t="n">
-        <v>528730.1945822566</v>
+        <v>522582.1813960377</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G2" t="n">
         <v>46.9751366185926</v>
@@ -26706,28 +26706,28 @@
         <v>46.9751366185926</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K2" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O2" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,7 +26740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>87.42330652550569</v>
+        <v>84.51053404356588</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26755,7 +26755,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
+      <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="L4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
@@ -26828,7 +26828,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.398206845666706</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26962,10 +26962,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>87.42330652550569</v>
+        <v>84.51053404356588</v>
       </c>
       <c r="D3" t="n">
-        <v>173.3730859919591</v>
+        <v>176.2858584738989</v>
       </c>
       <c r="E3" t="n">
         <v>828.9803080758335</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292596</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>335.8755099028854</v>
+        <v>335.995431234265</v>
       </c>
       <c r="I5" t="n">
-        <v>196.9265949982469</v>
+        <v>197.3780308218046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>127.7923168214198</v>
+        <v>128.5278723768717</v>
       </c>
       <c r="S5" t="n">
-        <v>201.011391807552</v>
+        <v>201.278225186174</v>
       </c>
       <c r="T5" t="n">
-        <v>221.5573750945217</v>
+        <v>221.6086340353848</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3175368695569</v>
+        <v>251.3184736406064</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27709,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.1554745793633</v>
+        <v>137.1617397880981</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4193487556553</v>
+        <v>110.4798574821197</v>
       </c>
       <c r="I6" t="n">
-        <v>82.92235967947904</v>
+        <v>83.13806971705667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>88.48269899061427</v>
+        <v>88.87169151188164</v>
       </c>
       <c r="S6" t="n">
-        <v>168.1903625836914</v>
+        <v>168.3067360880407</v>
       </c>
       <c r="T6" t="n">
-        <v>199.406785122209</v>
+        <v>199.4320383100477</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9290108583533</v>
+        <v>225.9294230431385</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27788,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.833330772921</v>
+        <v>167.8385833134622</v>
       </c>
       <c r="H7" t="n">
-        <v>160.8255332651126</v>
+        <v>160.8722331255608</v>
       </c>
       <c r="I7" t="n">
-        <v>150.7095520094489</v>
+        <v>150.8675102286334</v>
       </c>
       <c r="J7" t="n">
-        <v>82.21342511915051</v>
+        <v>82.58477973541356</v>
       </c>
       <c r="K7" t="n">
-        <v>3.953592524309698</v>
+        <v>4.563842234460367</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>72.96112396634302</v>
+        <v>73.40095261111594</v>
       </c>
       <c r="R7" t="n">
-        <v>170.2049377038064</v>
+        <v>170.4411110266863</v>
       </c>
       <c r="S7" t="n">
-        <v>221.2692131417363</v>
+        <v>221.3607505982589</v>
       </c>
       <c r="T7" t="n">
-        <v>227.2720000173473</v>
+        <v>227.2944426905688</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3104303427343</v>
+        <v>286.3107168449456</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -28034,7 +28034,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="17">
@@ -28821,7 +28821,7 @@
         <v>46.9751366185926</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>46.9751366185926</v>
       </c>
       <c r="N22" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859091</v>
       </c>
       <c r="O22" t="n">
         <v>46.9751366185926</v>
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292594</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292594</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="C31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="D31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="E31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="F31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="G31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="H31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="I31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="J31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="K31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="L31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="M31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="N31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="O31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="P31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="R31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="S31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="T31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="U31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="V31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="W31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="X31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.57692977292595</v>
+        <v>46.97513661859262</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859142</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661858983</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>5.398206845666714</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.351450478494495</v>
+        <v>0.339740840376144</v>
       </c>
       <c r="H5" t="n">
-        <v>3.599292212881747</v>
+        <v>3.479370881502186</v>
       </c>
       <c r="I5" t="n">
-        <v>13.54929457215903</v>
+        <v>13.0978587486013</v>
       </c>
       <c r="J5" t="n">
-        <v>29.82892004912217</v>
+        <v>28.83507915087478</v>
       </c>
       <c r="K5" t="n">
-        <v>44.70581880379415</v>
+        <v>43.21630892399696</v>
       </c>
       <c r="L5" t="n">
-        <v>55.46152138502006</v>
+        <v>53.61365266765839</v>
       </c>
       <c r="M5" t="n">
-        <v>61.71162883194654</v>
+        <v>59.65551883769763</v>
       </c>
       <c r="N5" t="n">
-        <v>62.71018750396902</v>
+        <v>60.62080750041636</v>
       </c>
       <c r="O5" t="n">
-        <v>59.21545180843939</v>
+        <v>57.24250951892608</v>
       </c>
       <c r="P5" t="n">
-        <v>50.53901812060653</v>
+        <v>48.85515752214001</v>
       </c>
       <c r="Q5" t="n">
-        <v>37.95269785952242</v>
+        <v>36.68818867616935</v>
       </c>
       <c r="R5" t="n">
-        <v>22.07680111972984</v>
+        <v>21.34124556427797</v>
       </c>
       <c r="S5" t="n">
-        <v>8.008677778693313</v>
+        <v>7.741844400071389</v>
       </c>
       <c r="T5" t="n">
-        <v>1.538474469609653</v>
+        <v>1.487215528746571</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02811603827955959</v>
+        <v>0.02717926723009152</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1880425838473141</v>
+        <v>0.1817773751125757</v>
       </c>
       <c r="H6" t="n">
-        <v>1.816095480841166</v>
+        <v>1.755586754376718</v>
       </c>
       <c r="I6" t="n">
-        <v>6.474273171936036</v>
+        <v>6.258563134358417</v>
       </c>
       <c r="J6" t="n">
-        <v>17.76590043269734</v>
+        <v>17.17397560219295</v>
       </c>
       <c r="K6" t="n">
-        <v>30.36475355046739</v>
+        <v>29.35305973473552</v>
       </c>
       <c r="L6" t="n">
-        <v>40.82915839193547</v>
+        <v>39.46881120591254</v>
       </c>
       <c r="M6" t="n">
-        <v>47.64570205640059</v>
+        <v>46.0582410537434</v>
       </c>
       <c r="N6" t="n">
-        <v>48.90674201562229</v>
+        <v>47.27726564386239</v>
       </c>
       <c r="O6" t="n">
-        <v>44.74011423668969</v>
+        <v>43.24946170057848</v>
       </c>
       <c r="P6" t="n">
-        <v>35.90788603308931</v>
+        <v>34.71150595461106</v>
       </c>
       <c r="Q6" t="n">
-        <v>24.0034708784747</v>
+        <v>23.20372247928247</v>
       </c>
       <c r="R6" t="n">
-        <v>11.67513516202886</v>
+        <v>11.2861426407615</v>
       </c>
       <c r="S6" t="n">
-        <v>3.492808520146381</v>
+        <v>3.376435015797182</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7579435726126387</v>
+        <v>0.7326903847739341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01237122262153383</v>
+        <v>0.01195903783635367</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1576485855377971</v>
+        <v>0.1523960449965942</v>
       </c>
       <c r="H7" t="n">
-        <v>1.401639242326961</v>
+        <v>1.354939381878811</v>
       </c>
       <c r="I7" t="n">
-        <v>4.740922917809391</v>
+        <v>4.582964698624853</v>
       </c>
       <c r="J7" t="n">
-        <v>11.14575499752226</v>
+        <v>10.77440038125921</v>
       </c>
       <c r="K7" t="n">
-        <v>18.31589930157315</v>
+        <v>17.70564959142249</v>
       </c>
       <c r="L7" t="n">
-        <v>23.43804516259214</v>
+        <v>22.65713563522093</v>
       </c>
       <c r="M7" t="n">
-        <v>24.71213236752941</v>
+        <v>23.88877276251158</v>
       </c>
       <c r="N7" t="n">
-        <v>24.12453309416128</v>
+        <v>23.32075114025156</v>
       </c>
       <c r="O7" t="n">
-        <v>22.28291098128792</v>
+        <v>21.54048825097316</v>
       </c>
       <c r="P7" t="n">
-        <v>19.06687983631684</v>
+        <v>18.43160893304262</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.20091928535136</v>
+        <v>12.76109064057845</v>
       </c>
       <c r="R7" t="n">
-        <v>7.088453673363131</v>
+        <v>6.852280350483225</v>
       </c>
       <c r="S7" t="n">
-        <v>2.747384895235973</v>
+        <v>2.655847438713372</v>
       </c>
       <c r="T7" t="n">
-        <v>0.673589410934224</v>
+        <v>0.6511467377127205</v>
       </c>
       <c r="U7" t="n">
-        <v>0.008599013756607127</v>
+        <v>0.008312511545268785</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31524,7 +31524,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31548,7 +31548,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31557,7 +31557,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,7 +31597,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31630,7 +31630,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31682,7 +31682,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31697,13 +31697,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35579,7 +35579,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165885</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861311</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165882</v>
       </c>
       <c r="K25" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887895</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P25" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.787000968712</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.15534638599217</v>
+        <v>92.55355323165884</v>
       </c>
       <c r="K31" t="n">
-        <v>247.6245893172455</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>361.334301943124</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>389.2103091664098</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>386.433875940466</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>343.9300599955657</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P31" t="n">
-        <v>276.5340009180364</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.9711683108196</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629122</v>
@@ -37241,13 +37241,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165882</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629122</v>
@@ -37478,13 +37478,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637019</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316589</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120765</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861328</v>
+        <v>391.8320827861315</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637003</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.97662345873294</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>211.4458663899863</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158648</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391506</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132068</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683065</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>240.3552779907772</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356036</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>50.97662345873294</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>211.4458663899863</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>325.1555790158648</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>353.0315862391506</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>350.2551530132068</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>307.7513370683065</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>240.3552779907772</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>83.79244538356036</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
